--- a/medicine/Enfance/Éditions_de_la_Bagnole/Éditions_de_la_Bagnole.xlsx
+++ b/medicine/Enfance/Éditions_de_la_Bagnole/Éditions_de_la_Bagnole.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89ditions_de_la_Bagnole</t>
+          <t>Éditions_de_la_Bagnole</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Les Éditions de la Bagnole sont une maison d'édition jeunesse québécoise fondée en 2004 à Sorel-Tracy par le comédien Martin Larocque et son épouse de l'époque, l'écrivain Jennifer Tremblay[1].
+Les Éditions de la Bagnole sont une maison d'édition jeunesse québécoise fondée en 2004 à Sorel-Tracy par le comédien Martin Larocque et son épouse de l'époque, l'écrivain Jennifer Tremblay.
 En 2011, la maison d'édition est rachetée par le Groupe Livre Québecor Média.
 À l'origine, les Éditions de la Bagnole étaient situées à Longueuil. Aujourd'hui[Quand ?], elles partagent les coordonnées des éditeurs du groupe Ville-Marie Littérature[pas clair].
 </t>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89ditions_de_la_Bagnole</t>
+          <t>Éditions_de_la_Bagnole</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,6 +527,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -522,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89ditions_de_la_Bagnole</t>
+          <t>Éditions_de_la_Bagnole</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -540,15 +554,17 @@
           <t>Quelques titres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Dans la collection Modèles uniques
-Dany Laferrière, Je suis fou de Vava, illustrations de Frédéric Normandin, 2006 ; Prix du Gouverneur général catégorie Littérature jeunesse de langue française - texte[1].
+Dany Laferrière, Je suis fou de Vava, illustrations de Frédéric Normandin, 2006 ; Prix du Gouverneur général catégorie Littérature jeunesse de langue française - texte.
 Dans la collection Klaxon
 Marie-Claire Séguin et Katy Lemay, Émilie la Mayou  (ISBN 9782923342009)
 Jennifer Tremblay et Rémy Simard, Un secret pour Matisse  (ISBN 9782923342016)
 Mireille Messier et Benoit Laverdière, Charlotte partout !  (ISBN 9782923342740)
-Fabrice Boulanger Ma sœur veut un zizi, 2012[2].
+Fabrice Boulanger Ma sœur veut un zizi, 2012.
 Dans la collection Taxi
 Janette Bertrand et Caroline Merola - Ti-boutte  (ISBN 9782923342467)
 Dans la collection Bazou
@@ -556,7 +572,7 @@
 Pascal Élie - Djak à la mer  (ISBN 9782923342115)
 Dans la collection Caravane
 Galarneau, Bergeron-Proulx et Charbonneau-Brunelle - Coco incognito  (ISBN 9782923342757)
-Dans la collection Gazoline, créée en 2007[3]
+Dans la collection Gazoline, créée en 2007
 Bryan Perro - En mer  (ISBN 9782923342146)
 Marc Auger - L'Écuyer de Valburme, volume 1: La nuit des ogres  (ISBN 9782923342283)
 Patrick Senécal - Madame Wenham  (ISBN 9782897140212)
